--- a/employee.xlsx
+++ b/employee.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -23,13 +23,19 @@
     <t>Last Name</t>
   </si>
   <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Role Name</t>
+  </si>
+  <si>
     <t>Salary</t>
   </si>
   <si>
-    <t>Date Of Birth</t>
-  </si>
-  <si>
-    <t>Role ID</t>
+    <t>Final Salary</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
   <si>
     <t>Đặng Huy</t>
@@ -38,120 +44,141 @@
     <t>Hoàng</t>
   </si>
   <si>
-    <t>5000000.00</t>
-  </si>
-  <si>
     <t>11-06-2004</t>
   </si>
   <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>5.000.000</t>
+  </si>
+  <si>
+    <t>17.500.000</t>
+  </si>
+  <si>
+    <t>Hoạt động</t>
+  </si>
+  <si>
     <t>Nguyễn Thành</t>
   </si>
   <si>
     <t>Long</t>
   </si>
   <si>
-    <t>2000000.00</t>
-  </si>
-  <si>
     <t>11-04-2003</t>
   </si>
   <si>
+    <t>Admin2</t>
+  </si>
+  <si>
+    <t>2.000.000</t>
+  </si>
+  <si>
+    <t>4.000.000</t>
+  </si>
+  <si>
     <t>Trần Văn</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>3000000.00</t>
-  </si>
-  <si>
     <t>15-01-1990</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>3.000.000</t>
+  </si>
+  <si>
     <t>Lê Thị</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>3500000.00</t>
-  </si>
-  <si>
     <t>20-02-1988</t>
   </si>
   <si>
+    <t>3.500.000</t>
+  </si>
+  <si>
     <t>Phạm Minh</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>4000000.00</t>
-  </si>
-  <si>
     <t>25-03-1985</t>
   </si>
   <si>
+    <t>8.000.000</t>
+  </si>
+  <si>
     <t>Nguyễn Thị</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>4500000.00</t>
-  </si>
-  <si>
     <t>30-04-1992</t>
   </si>
   <si>
+    <t>4.500.000</t>
+  </si>
+  <si>
     <t>Đỗ Văn</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>2800000.00</t>
-  </si>
-  <si>
     <t>05-05-1995</t>
   </si>
   <si>
+    <t>2.800.000</t>
+  </si>
+  <si>
     <t>Bùi Thị</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>3200000.00</t>
-  </si>
-  <si>
     <t>10-06-1993</t>
   </si>
   <si>
+    <t>3.200.000</t>
+  </si>
+  <si>
     <t>Ngô Minh</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>2900000.00</t>
-  </si>
-  <si>
     <t>15-07-1991</t>
   </si>
   <si>
+    <t>2.900.000</t>
+  </si>
+  <si>
     <t>Trịnh Văn</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>3100000.00</t>
-  </si>
-  <si>
     <t>20-08-1989</t>
   </si>
   <si>
+    <t>3.100.000</t>
+  </si>
+  <si>
+    <t>Ngưng hoat động</t>
+  </si>
+  <si>
     <t>Vũ Thị</t>
   </si>
   <si>
@@ -161,28 +188,34 @@
     <t>25-09-1994</t>
   </si>
   <si>
+    <t>12.250.000</t>
+  </si>
+  <si>
     <t>Lý Văn</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>3700000.00</t>
-  </si>
-  <si>
     <t>30-10-1996</t>
   </si>
   <si>
+    <t>3.700.000</t>
+  </si>
+  <si>
+    <t>12.950.000</t>
+  </si>
+  <si>
     <t>Pro vip</t>
   </si>
   <si>
     <t>ALo</t>
   </si>
   <si>
-    <t>2999999.00</t>
-  </si>
-  <si>
-    <t/>
+    <t>2.999.999</t>
+  </si>
+  <si>
+    <t>10.499.996,5</t>
   </si>
 </sst>
 </file>
@@ -227,11 +260,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.4375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.76171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.81640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.67578125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -252,25 +295,37 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -278,19 +333,25 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>3.0</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -298,19 +359,25 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>0.0</v>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -318,19 +385,25 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>0.0</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -338,19 +411,25 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>3.0</v>
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -358,19 +437,25 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>0.0</v>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -378,19 +463,25 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>0.0</v>
+        <v>24</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -398,19 +489,25 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>0.0</v>
+        <v>24</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -418,19 +515,25 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>0.0</v>
+        <v>24</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -438,19 +541,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>0.0</v>
+        <v>24</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -458,19 +567,25 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="F12" t="n" s="0">
-        <v>1.0</v>
+        <v>11</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -478,19 +593,25 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="F13" t="n" s="0">
-        <v>1.0</v>
+        <v>11</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -498,19 +619,25 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="F14" t="n" s="0">
-        <v>1.0</v>
+        <v>11</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -68,52 +68,46 @@
     <t>11-04-2003</t>
   </si>
   <si>
-    <t>Admin2</t>
+    <t/>
   </si>
   <si>
     <t>2.000.000</t>
   </si>
   <si>
+    <t>Trần Văn</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>15-01-1990</t>
+  </si>
+  <si>
+    <t>3.000.000</t>
+  </si>
+  <si>
+    <t>Lê Thị</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>20-02-1988</t>
+  </si>
+  <si>
+    <t>3.500.000</t>
+  </si>
+  <si>
+    <t>Phạm Minh</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>25-03-1985</t>
+  </si>
+  <si>
     <t>4.000.000</t>
-  </si>
-  <si>
-    <t>Trần Văn</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>15-01-1990</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3.000.000</t>
-  </si>
-  <si>
-    <t>Lê Thị</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>20-02-1988</t>
-  </si>
-  <si>
-    <t>3.500.000</t>
-  </si>
-  <si>
-    <t>Phạm Minh</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>25-03-1985</t>
-  </si>
-  <si>
-    <t>8.000.000</t>
   </si>
   <si>
     <t>Nguyễn Thị</t>
@@ -348,7 +342,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>14</v>
@@ -359,22 +353,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>25</v>
-      </c>
       <c r="G4" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>14</v>
@@ -385,22 +379,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="G5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>14</v>
@@ -411,22 +405,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="E6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>20</v>
-      </c>
       <c r="G6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>14</v>
@@ -437,22 +431,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="E7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>37</v>
-      </c>
       <c r="G7" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>14</v>
@@ -463,22 +457,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="E8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="G8" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>14</v>
@@ -489,22 +483,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="E9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>45</v>
-      </c>
       <c r="G9" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>14</v>
@@ -515,22 +509,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="E10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>49</v>
-      </c>
       <c r="G10" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>14</v>
@@ -541,25 +535,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="E11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="G11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>52</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -567,22 +561,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>55</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>57</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>14</v>
@@ -593,22 +587,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>59</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>61</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>14</v>
@@ -619,22 +613,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s" s="0">
         <v>14</v>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -68,21 +68,27 @@
     <t>11-04-2003</t>
   </si>
   <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>2.000.000</t>
+  </si>
+  <si>
+    <t>6.000.000</t>
+  </si>
+  <si>
+    <t>Trần Văn</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>15-01-1990</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>2.000.000</t>
-  </si>
-  <si>
-    <t>Trần Văn</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>15-01-1990</t>
-  </si>
-  <si>
     <t>3.000.000</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
     <t>4.500.000</t>
   </si>
   <si>
+    <t>13.500.000</t>
+  </si>
+  <si>
     <t>Đỗ Văn</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
     <t>2.800.000</t>
   </si>
   <si>
+    <t>8.400.000</t>
+  </si>
+  <si>
     <t>Bùi Thị</t>
   </si>
   <si>
@@ -158,6 +170,9 @@
     <t>2.900.000</t>
   </si>
   <si>
+    <t>8.700.000</t>
+  </si>
+  <si>
     <t>Trịnh Văn</t>
   </si>
   <si>
@@ -210,6 +225,18 @@
   </si>
   <si>
     <t>10.499.996,5</t>
+  </si>
+  <si>
+    <t>Huy Hoang</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>1.165,5</t>
   </si>
 </sst>
 </file>
@@ -254,7 +281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -342,7 +369,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>14</v>
@@ -353,22 +380,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>14</v>
@@ -379,22 +406,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>18</v>
-      </c>
       <c r="F5" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>14</v>
@@ -405,22 +432,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>14</v>
@@ -431,22 +458,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>18</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>14</v>
@@ -457,22 +484,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>18</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>14</v>
@@ -483,22 +510,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>14</v>
@@ -509,22 +536,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>18</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>14</v>
@@ -535,25 +562,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -561,22 +588,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>14</v>
@@ -587,22 +614,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>14</v>
@@ -613,24 +640,50 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="0">
         <v>14</v>
       </c>
     </row>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -68,15 +68,12 @@
     <t>11-04-2003</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Nhân viên quản lý kho</t>
   </si>
   <si>
     <t>2.000.000</t>
   </si>
   <si>
-    <t>6.000.000</t>
-  </si>
-  <si>
     <t>Trần Văn</t>
   </si>
   <si>
@@ -86,12 +83,12 @@
     <t>15-01-1990</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>3.000.000</t>
   </si>
   <si>
+    <t>7.500.000</t>
+  </si>
+  <si>
     <t>Lê Thị</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
     <t>3.500.000</t>
   </si>
   <si>
+    <t>8.750.000</t>
+  </si>
+  <si>
     <t>Phạm Minh</t>
   </si>
   <si>
@@ -116,6 +116,9 @@
     <t>4.000.000</t>
   </si>
   <si>
+    <t>10.000.000</t>
+  </si>
+  <si>
     <t>Nguyễn Thị</t>
   </si>
   <si>
@@ -128,7 +131,7 @@
     <t>4.500.000</t>
   </si>
   <si>
-    <t>13.500.000</t>
+    <t>11.250.000</t>
   </si>
   <si>
     <t>Đỗ Văn</t>
@@ -143,7 +146,7 @@
     <t>2.800.000</t>
   </si>
   <si>
-    <t>8.400.000</t>
+    <t>7.000.000</t>
   </si>
   <si>
     <t>Bùi Thị</t>
@@ -158,6 +161,9 @@
     <t>3.200.000</t>
   </si>
   <si>
+    <t>8.000.000</t>
+  </si>
+  <si>
     <t>Ngô Minh</t>
   </si>
   <si>
@@ -170,7 +176,7 @@
     <t>2.900.000</t>
   </si>
   <si>
-    <t>8.700.000</t>
+    <t>7.250.000</t>
   </si>
   <si>
     <t>Trịnh Văn</t>
@@ -185,6 +191,9 @@
     <t>3.100.000</t>
   </si>
   <si>
+    <t>7.750.000</t>
+  </si>
+  <si>
     <t>Ngưng hoat động</t>
   </si>
   <si>
@@ -213,30 +222,6 @@
   </si>
   <si>
     <t>12.950.000</t>
-  </si>
-  <si>
-    <t>Pro vip</t>
-  </si>
-  <si>
-    <t>ALo</t>
-  </si>
-  <si>
-    <t>2.999.999</t>
-  </si>
-  <si>
-    <t>10.499.996,5</t>
-  </si>
-  <si>
-    <t>Huy Hoang</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>1.165,5</t>
   </si>
 </sst>
 </file>
@@ -281,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -291,9 +276,9 @@
     <col min="2" max="2" width="13.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.4375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.76171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.81640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="20.8984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -369,7 +354,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>14</v>
@@ -380,22 +365,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>14</v>
@@ -406,19 +391,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>29</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>29</v>
@@ -441,13 +426,13 @@
         <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>33</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>14</v>
@@ -458,22 +443,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>18</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>14</v>
@@ -484,22 +469,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>18</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>14</v>
@@ -510,22 +495,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>14</v>
@@ -536,22 +521,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>18</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>14</v>
@@ -562,25 +547,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -588,22 +573,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>14</v>
@@ -614,76 +599,24 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="0">
         <v>14</v>
       </c>
     </row>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -68,90 +68,102 @@
     <t>11-04-2003</t>
   </si>
   <si>
-    <t>Admin2</t>
+    <t>Nhân viên quản lý kho</t>
   </si>
   <si>
     <t>2.000.000</t>
   </si>
   <si>
+    <t>Trần Văn</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>15-01-1990</t>
+  </si>
+  <si>
+    <t>3.000.000</t>
+  </si>
+  <si>
+    <t>7.500.000</t>
+  </si>
+  <si>
+    <t>Lê Thị</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>20-02-1988</t>
+  </si>
+  <si>
+    <t>3.500.000</t>
+  </si>
+  <si>
+    <t>8.750.000</t>
+  </si>
+  <si>
+    <t>Phạm Minh</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>25-03-1985</t>
+  </si>
+  <si>
     <t>4.000.000</t>
   </si>
   <si>
-    <t>Trần Văn</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>15-01-1990</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3.000.000</t>
-  </si>
-  <si>
-    <t>Lê Thị</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>20-02-1988</t>
-  </si>
-  <si>
-    <t>3.500.000</t>
-  </si>
-  <si>
-    <t>Phạm Minh</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>25-03-1985</t>
+    <t>10.000.000</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>30-04-1992</t>
+  </si>
+  <si>
+    <t>4.500.000</t>
+  </si>
+  <si>
+    <t>11.250.000</t>
+  </si>
+  <si>
+    <t>Đỗ Văn</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>05-05-1995</t>
+  </si>
+  <si>
+    <t>2.800.000</t>
+  </si>
+  <si>
+    <t>7.000.000</t>
+  </si>
+  <si>
+    <t>Bùi Thị</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>10-06-1993</t>
+  </si>
+  <si>
+    <t>3.200.000</t>
   </si>
   <si>
     <t>8.000.000</t>
   </si>
   <si>
-    <t>Nguyễn Thị</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>30-04-1992</t>
-  </si>
-  <si>
-    <t>4.500.000</t>
-  </si>
-  <si>
-    <t>Đỗ Văn</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>05-05-1995</t>
-  </si>
-  <si>
-    <t>2.800.000</t>
-  </si>
-  <si>
-    <t>Bùi Thị</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>10-06-1993</t>
-  </si>
-  <si>
-    <t>3.200.000</t>
-  </si>
-  <si>
     <t>Ngô Minh</t>
   </si>
   <si>
@@ -164,6 +176,9 @@
     <t>2.900.000</t>
   </si>
   <si>
+    <t>7.250.000</t>
+  </si>
+  <si>
     <t>Trịnh Văn</t>
   </si>
   <si>
@@ -176,6 +191,9 @@
     <t>3.100.000</t>
   </si>
   <si>
+    <t>7.750.000</t>
+  </si>
+  <si>
     <t>Ngưng hoat động</t>
   </si>
   <si>
@@ -204,18 +222,6 @@
   </si>
   <si>
     <t>12.950.000</t>
-  </si>
-  <si>
-    <t>Pro vip</t>
-  </si>
-  <si>
-    <t>ALo</t>
-  </si>
-  <si>
-    <t>2.999.999</t>
-  </si>
-  <si>
-    <t>10.499.996,5</t>
   </si>
 </sst>
 </file>
@@ -260,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -270,9 +276,9 @@
     <col min="2" max="2" width="13.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.4375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.76171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.81640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="20.8984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -348,7 +354,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>14</v>
@@ -359,22 +365,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>14</v>
@@ -385,19 +391,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>29</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>29</v>
@@ -423,10 +429,10 @@
         <v>18</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>14</v>
@@ -437,22 +443,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>14</v>
@@ -463,22 +469,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>14</v>
@@ -489,22 +495,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>14</v>
@@ -515,22 +521,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>14</v>
@@ -541,25 +547,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -567,22 +573,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>14</v>
@@ -593,50 +599,24 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s" s="0">
         <v>14</v>
       </c>
     </row>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -617,7 +617,7 @@
         <v>69</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -74,19 +74,22 @@
     <t>2.000.000</t>
   </si>
   <si>
-    <t>Trần Văn</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>15-01-1990</t>
+    <t>Tần Thiên</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>15-01-2000</t>
+  </si>
+  <si>
+    <t>Nhân viên bán hàng</t>
   </si>
   <si>
     <t>3.000.000</t>
   </si>
   <si>
-    <t>7.500.000</t>
+    <t>6.000.000</t>
   </si>
   <si>
     <t>Lê Thị</t>
@@ -101,7 +104,7 @@
     <t>3.500.000</t>
   </si>
   <si>
-    <t>8.750.000</t>
+    <t>7.000.000</t>
   </si>
   <si>
     <t>Phạm Minh</t>
@@ -116,7 +119,7 @@
     <t>4.000.000</t>
   </si>
   <si>
-    <t>10.000.000</t>
+    <t>8.000.000</t>
   </si>
   <si>
     <t>Nguyễn Thị</t>
@@ -131,7 +134,7 @@
     <t>4.500.000</t>
   </si>
   <si>
-    <t>11.250.000</t>
+    <t>9.000.000</t>
   </si>
   <si>
     <t>Đỗ Văn</t>
@@ -143,10 +146,13 @@
     <t>05-05-1995</t>
   </si>
   <si>
+    <t>Quản lý chức vụ</t>
+  </si>
+  <si>
     <t>2.800.000</t>
   </si>
   <si>
-    <t>7.000.000</t>
+    <t>7.840.000</t>
   </si>
   <si>
     <t>Bùi Thị</t>
@@ -158,10 +164,13 @@
     <t>10-06-1993</t>
   </si>
   <si>
+    <t>Quản lý cửa hàng</t>
+  </si>
+  <si>
     <t>3.200.000</t>
   </si>
   <si>
-    <t>8.000.000</t>
+    <t>8.320.000</t>
   </si>
   <si>
     <t>Ngô Minh</t>
@@ -173,10 +182,13 @@
     <t>15-07-1991</t>
   </si>
   <si>
+    <t>Nhân viên chăm sóc khách hàng</t>
+  </si>
+  <si>
     <t>2.900.000</t>
   </si>
   <si>
-    <t>7.250.000</t>
+    <t>6.380.000</t>
   </si>
   <si>
     <t>Trịnh Văn</t>
@@ -276,7 +288,7 @@
     <col min="2" max="2" width="13.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.4375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.76171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="20.8984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.60546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.67578125" customWidth="true" bestFit="true"/>
@@ -374,13 +386,13 @@
         <v>22</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>14</v>
@@ -391,22 +403,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>14</v>
@@ -417,22 +429,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>14</v>
@@ -443,22 +455,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>14</v>
@@ -469,22 +481,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>14</v>
@@ -495,22 +507,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>14</v>
@@ -521,22 +533,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>14</v>
@@ -547,25 +559,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>18</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -573,22 +585,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>14</v>
@@ -599,25 +611,25 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
